--- a/Doc/ExcelConfig/Datas/dota/DotaAbilities.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/DotaAbilities.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10779" uniqueCount="3361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10778" uniqueCount="3361">
   <si>
     <t>##</t>
   </si>
@@ -11067,8 +11067,8 @@
   <sheetPr/>
   <dimension ref="A1:AX628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="V601" workbookViewId="0">
-      <selection activeCell="AQ588" sqref="AQ588"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -11080,7 +11080,9 @@
     <col min="5" max="5" width="14.0833333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.9166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.4083333333333" style="1" customWidth="1"/>
-    <col min="8" max="26" width="9" style="1"/>
+    <col min="8" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7583333333333" style="1" customWidth="1"/>
     <col min="27" max="27" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="28" max="28" width="15.5" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -13237,8 +13239,8 @@
       <c r="AS41" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AT41" s="1" t="s">
-        <v>282</v>
+      <c r="AT41" s="1">
+        <v>501</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:26">
